--- a/Patissier/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Patissier/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56729D6-CBC2-4477-9E14-7E54E61EE90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6465" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -49,182 +50,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이름_002</t>
+  </si>
+  <si>
+    <t>이름_003</t>
+  </si>
+  <si>
+    <t>이름_004</t>
+  </si>
+  <si>
+    <t>이름_005</t>
+  </si>
+  <si>
+    <t>이름_006</t>
+  </si>
+  <si>
+    <t>이름_007</t>
+  </si>
+  <si>
+    <t>이름_008</t>
+  </si>
+  <si>
+    <t>이름_009</t>
+  </si>
+  <si>
+    <t>이름_010</t>
+  </si>
+  <si>
+    <t>이름_011</t>
+  </si>
+  <si>
+    <t>이름_012</t>
+  </si>
+  <si>
+    <t>이름_013</t>
+  </si>
+  <si>
+    <t>이름_014</t>
+  </si>
+  <si>
+    <t>이름_015</t>
+  </si>
+  <si>
+    <t>이름_016</t>
+  </si>
+  <si>
+    <t>이름_017</t>
+  </si>
+  <si>
+    <t>이름_018</t>
+  </si>
+  <si>
+    <t>이름_019</t>
+  </si>
+  <si>
+    <t>이름_020</t>
+  </si>
+  <si>
+    <t>이름_021</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_001_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGroundPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -599,10 +600,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -634,7 +635,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -645,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -666,7 +667,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -677,16 +678,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -698,7 +699,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -709,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -730,7 +731,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -741,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -762,7 +763,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -773,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -794,7 +795,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -805,16 +806,16 @@
         <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -826,7 +827,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -837,16 +838,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -858,7 +859,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -869,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -890,7 +891,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -901,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -922,7 +923,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -933,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -954,7 +955,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -965,16 +966,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -986,7 +987,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1018,7 +1019,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1050,7 +1051,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1061,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1082,7 +1083,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1093,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1114,7 +1115,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1125,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1146,7 +1147,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1157,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1178,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1189,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1210,7 +1211,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1221,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1242,7 +1243,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1274,7 +1275,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
